--- a/DATA_goal/Junction_Flooding_347.xlsx
+++ b/DATA_goal/Junction_Flooding_347.xlsx
@@ -446,19 +446,19 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>45028.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.46</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.54</v>
+        <v>45.36</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.75</v>
+        <v>37.51</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.57</v>
+        <v>55.7</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.02</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.89</v>
+        <v>18.88</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.37</v>
+        <v>23.75</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.02</v>
+        <v>250.17</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.71</v>
+        <v>47.09</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.11</v>
+        <v>31.15</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.66</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.92</v>
+        <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45028.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.53</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.75</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.15</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.85</v>
+        <v>38.53</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.3</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45028.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.38</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.3</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.59</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>9.56</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.2</v>
+        <v>11.97</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.75</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.26</v>
+        <v>22.61</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.42</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45028.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.19</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="M5" s="4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>67.06999999999999</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.83</v>
+        <v>18.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_347.xlsx
+++ b/DATA_goal/Junction_Flooding_347.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,91 +655,91 @@
         <v>45028.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.62</v>
+        <v>21.619</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.46</v>
+        <v>14.458</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.456</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45.36</v>
+        <v>45.361</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.51</v>
+        <v>37.513</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.01</v>
+        <v>17.013</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>55.7</v>
+        <v>55.703</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.18</v>
+        <v>26.178</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.065</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.02</v>
+        <v>17.024</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.88</v>
+        <v>18.877</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.43</v>
+        <v>5.432</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.75</v>
+        <v>23.745</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.24</v>
+        <v>14.242</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.744</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.457</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>250.17</v>
+        <v>250.169</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>47.09</v>
+        <v>47.091</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.15</v>
+        <v>31.148</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.25</v>
+        <v>16.247</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.41</v>
+        <v>2.407</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.66</v>
+        <v>27.662</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.75</v>
+        <v>12.753</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.41</v>
+        <v>18.409</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
@@ -748,10 +748,10 @@
         <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.52</v>
+        <v>19.523</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45028.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.84</v>
+        <v>3.843</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.13</v>
+        <v>2.134</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.431</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.7</v>
+        <v>7.696</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>6.37</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.03</v>
+        <v>3.026</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.53</v>
+        <v>17.534</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.65</v>
+        <v>4.654</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.841</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.75</v>
+        <v>2.752</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.16</v>
+        <v>3.162</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.15</v>
+        <v>3.145</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.981</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.01</v>
+        <v>3.008</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>4.17</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.84</v>
+        <v>2.842</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.51</v>
+        <v>1.508</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.699</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.53</v>
+        <v>38.535</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.798</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.56</v>
+        <v>5.563</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.01</v>
+        <v>3.015</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.541</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.76</v>
+        <v>7.761</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.45</v>
+        <v>2.452</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.51</v>
+        <v>2.506</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.8</v>
+        <v>2.797</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.13</v>
+        <v>3.133</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.3</v>
+        <v>16.299</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.394</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.47</v>
+        <v>3.475</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45028.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.65</v>
+        <v>8.648</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.02</v>
+        <v>6.017</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.08</v>
+        <v>1.077</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.38</v>
+        <v>18.381</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15.2</v>
+        <v>15.199</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.81</v>
+        <v>6.805</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.3</v>
+        <v>25.303</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.47</v>
+        <v>10.471</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.47</v>
+        <v>4.467</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.742</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.48</v>
+        <v>7.481</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.74</v>
+        <v>7.742</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.17</v>
+        <v>2.171</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.77</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>9.471</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>5.9</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.01</v>
+        <v>1.012</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.587</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.65000000000001</v>
+        <v>95.649</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.83</v>
+        <v>18.831</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.25</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.39</v>
+        <v>12.385</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.743</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.01</v>
+        <v>1.008</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.97</v>
+        <v>11.974</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.52</v>
+        <v>5.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.07</v>
+        <v>5.069</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.89</v>
+        <v>5.891</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.75</v>
+        <v>7.749</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.61</v>
+        <v>22.606</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.42</v>
+        <v>3.415</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.81</v>
+        <v>7.809</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45028.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.34</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.37</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_347.xlsx
+++ b/DATA_goal/Junction_Flooding_347.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>45028.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.25</v>
+        <v>6.246</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>4.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.26</v>
+        <v>13.265</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.96</v>
+        <v>10.964</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.92</v>
+        <v>4.915</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.19</v>
+        <v>20.186</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.25</v>
+        <v>3.245</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.84</v>
+        <v>4.843</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.43</v>
+        <v>5.429</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.6</v>
+        <v>5.595</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.57</v>
+        <v>1.572</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.89</v>
+        <v>4.888</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.87</v>
+        <v>6.867</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.29</v>
+        <v>4.294</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.412</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>67.06999999999999</v>
+        <v>67.068</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.73</v>
+        <v>13.731</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.51</v>
+        <v>4.511</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>9.032999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.91</v>
+        <v>4.915</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>9.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.98</v>
+        <v>3.985</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.67</v>
+        <v>3.667</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.27</v>
+        <v>4.265</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.62</v>
+        <v>5.621</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.32</v>
+        <v>18.319</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.45</v>
+        <v>2.452</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45028.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>164.34</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>31.46</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>37.37</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_347.xlsx
+++ b/DATA_goal/Junction_Flooding_347.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>45028.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.246</v>
+        <v>6.25</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>4.34</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.265</v>
+        <v>13.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.964</v>
+        <v>10.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.915</v>
+        <v>4.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.186</v>
+        <v>20.19</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.562</v>
+        <v>7.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.245</v>
+        <v>3.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.843</v>
+        <v>4.84</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.429</v>
+        <v>5.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.595</v>
+        <v>5.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.572</v>
+        <v>1.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.888</v>
+        <v>4.89</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.867</v>
+        <v>6.87</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.294</v>
+        <v>4.29</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.744</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.412</v>
+        <v>0.41</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>67.068</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.731</v>
+        <v>13.73</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.511</v>
+        <v>4.51</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.032999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.915</v>
+        <v>4.91</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>9.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.985</v>
+        <v>3.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.667</v>
+        <v>3.67</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.265</v>
+        <v>4.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.621</v>
+        <v>5.62</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.319</v>
+        <v>18.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.452</v>
+        <v>2.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.641</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45028.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>41.41</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.34</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.37</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.02</v>
+        <v>5.64</v>
       </c>
     </row>
   </sheetData>
